--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_FundProfile_EditProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_FundProfile_EditProfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55DDA9A-1807-4443-945C-F4B039BE26C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B63A769-C4AA-482A-BE62-B75E8570B894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="20" yWindow="620" windowWidth="19180" windowHeight="10180" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F78BAF-E54A-462B-B14E-BFAE717CFFB4}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
